--- a/Assets/_Excel/player.xlsx
+++ b/Assets/_Excel/player.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityDemo\BattleFlagGame\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16DD08F-8BC7-4961-840D-69038BDCA2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B8C0F9-E09F-4C65-B6F9-70D56531F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-1002-1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>野猪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,7 +119,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-1002-1005</t>
+    <t>1001-1002-1009-1005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +138,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,9 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -477,18 +485,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="5" max="8" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="5" max="8" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -580,11 +588,11 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -612,25 +620,25 @@
       <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
@@ -644,8 +652,8 @@
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Excel/player.xlsx
+++ b/Assets/_Excel/player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B8C0F9-E09F-4C65-B6F9-70D56531F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68980090-9258-46EF-AF4A-C84C2B437421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="2865" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-1002-1009-1005</t>
+    <t>1001-1009-1002-1005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/_Excel/player.xlsx
+++ b/Assets/_Excel/player.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68980090-9258-46EF-AF4A-C84C2B437421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C9D1B-1802-423E-B17E-3DFBA0199FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="2865" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="5880" windowWidth="27675" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-1009-1002-1005</t>
+    <t>1001-1002-1005-1009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +486,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
